--- a/ESPN sports website/IPL/Rajasthan Royals/Yashasvi Jaiswal.xlsx
+++ b/ESPN sports website/IPL/Rajasthan Royals/Yashasvi Jaiswal.xlsx
@@ -445,31 +445,31 @@
         <v>Yashasvi Jaiswal</v>
       </c>
       <c r="C2" t="str">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D2" t="str">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>66.66</v>
+        <v>100.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J2" t="str">
-        <v>April 05, 2022</v>
+        <v>May 11, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>RCB won by 4 wickets (with 5 balls remaining)</v>
+        <v>Capitals won by 8 wickets (with 11 balls remaining)</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Yashasvi Jaiswal</v>
       </c>
       <c r="C3" t="str">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D3" t="str">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>100.00</v>
+        <v>66.66</v>
       </c>
       <c r="H3" t="str">
-        <v>Delhi Capitals</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>May 11, 2022</v>
+        <v>April 05, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Capitals won by 8 wickets (with 11 balls remaining)</v>
+        <v>RCB won by 4 wickets (with 5 balls remaining)</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Yashasvi Jaiswal</v>
       </c>
       <c r="C4" t="str">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D4" t="str">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E4" t="str">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" t="str">
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <v>125.00</v>
+        <v>141.37</v>
       </c>
       <c r="H4" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I4" t="str">
-        <v>Pune</v>
+        <v>Brabourne</v>
       </c>
       <c r="J4" t="str">
-        <v>March 29, 2022</v>
+        <v>May 15, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Royals won by 61 runs</v>
+        <v>Royals won by 24 runs</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Yashasvi Jaiswal</v>
       </c>
       <c r="C5" t="str">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D5" t="str">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="str">
-        <v>37.50</v>
+        <v>125.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Gujarat Titans</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I5" t="str">
-        <v>Kolkata</v>
+        <v>Pune</v>
       </c>
       <c r="J5" t="str">
-        <v>May 24, 2022</v>
+        <v>March 29, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Titans won by 7 wickets (with 3 balls remaining)</v>
+        <v>Royals won by 61 runs</v>
       </c>
     </row>
     <row r="6">
@@ -585,31 +585,31 @@
         <v>Yashasvi Jaiswal</v>
       </c>
       <c r="C6" t="str">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D6" t="str">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>137.50</v>
+        <v>50.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Gujarat Titans</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I6" t="str">
-        <v>Ahmedabad</v>
+        <v>DY Patil</v>
       </c>
       <c r="J6" t="str">
-        <v>May 29, 2022</v>
+        <v>April 02, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Titans won by 7 wickets (with 11 balls remaining)</v>
+        <v>Royals won by 23 runs</v>
       </c>
     </row>
     <row r="7">
@@ -655,10 +655,10 @@
         <v>Yashasvi Jaiswal</v>
       </c>
       <c r="C8" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8" t="str">
         <v>0</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="G8" t="str">
-        <v>50.00</v>
+        <v>37.50</v>
       </c>
       <c r="H8" t="str">
-        <v>Mumbai Indians</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I8" t="str">
-        <v>DY Patil</v>
+        <v>Kolkata</v>
       </c>
       <c r="J8" t="str">
-        <v>April 02, 2022</v>
+        <v>May 24, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>Royals won by 23 runs</v>
+        <v>Titans won by 7 wickets (with 3 balls remaining)</v>
       </c>
     </row>
     <row r="9">
@@ -760,31 +760,31 @@
         <v>Yashasvi Jaiswal</v>
       </c>
       <c r="C11" t="str">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D11" t="str">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E11" t="str">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="str">
-        <v>141.37</v>
+        <v>137.50</v>
       </c>
       <c r="H11" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Gujarat Titans</v>
       </c>
       <c r="I11" t="str">
-        <v>Brabourne</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J11" t="str">
-        <v>May 15, 2022</v>
+        <v>May 29, 2022</v>
       </c>
       <c r="K11" t="str">
-        <v>Royals won by 24 runs</v>
+        <v>Titans won by 7 wickets (with 11 balls remaining)</v>
       </c>
     </row>
   </sheetData>
